--- a/jenktest.xlsx
+++ b/jenktest.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22624"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="240" windowWidth="25280" windowHeight="15320" tabRatio="500" activeTab="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="331">
   <si>
     <t>e76e458213e77b329110cbf976ea738a4c16c817</t>
   </si>
@@ -1010,6 +1010,9 @@
   </si>
   <si>
     <t>Devs</t>
+  </si>
+  <si>
+    <t>asas</t>
   </si>
 </sst>
 </file>
@@ -1017,7 +1020,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -1165,7 +1168,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1252,17 +1255,7 @@
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4372,11 +4365,9 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
-  <dimension ref="C1:L201"/>
+  <dimension ref="A1:L201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -4388,7 +4379,10 @@
     <col min="12" max="12" width="17.33203125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:12">
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>330</v>
+      </c>
       <c r="G1" s="4" t="s">
         <v>329</v>
       </c>
@@ -4396,7 +4390,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="2" spans="3:12">
+    <row r="2" spans="1:12">
       <c r="C2" s="3">
         <v>40953.622430555559</v>
       </c>
@@ -4413,11 +4407,11 @@
         <v>72</v>
       </c>
       <c r="L2" s="4" t="str">
-        <f>G2</f>
+        <f t="shared" ref="L2:L33" si="0">G2</f>
         <v>Sascha Scholz</v>
       </c>
     </row>
-    <row r="3" spans="3:12">
+    <row r="3" spans="1:12">
       <c r="C3" s="3">
         <v>40965.976307870369</v>
       </c>
@@ -4434,11 +4428,11 @@
         <v>43</v>
       </c>
       <c r="L3" s="4" t="str">
-        <f>G3</f>
+        <f t="shared" si="0"/>
         <v>Olivier Lamy</v>
       </c>
     </row>
-    <row r="4" spans="3:12">
+    <row r="4" spans="1:12">
       <c r="C4" s="3">
         <v>40966.389861111114</v>
       </c>
@@ -4455,11 +4449,11 @@
         <v>44</v>
       </c>
       <c r="L4" s="4" t="str">
-        <f>G4</f>
-        <v>Kohsuke Kawaguchi</v>
-      </c>
-    </row>
-    <row r="5" spans="3:12">
+        <f t="shared" si="0"/>
+        <v>Kohsuke Kawaguchi</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="C5" s="3">
         <v>40967.456180555557</v>
       </c>
@@ -4476,11 +4470,11 @@
         <v>10</v>
       </c>
       <c r="L5" s="4" t="str">
-        <f>G5</f>
+        <f t="shared" si="0"/>
         <v>Vojtech Juranek</v>
       </c>
     </row>
-    <row r="6" spans="3:12">
+    <row r="6" spans="1:12">
       <c r="C6" s="3">
         <v>40967.851574074077</v>
       </c>
@@ -4497,11 +4491,11 @@
         <v>11</v>
       </c>
       <c r="L6" s="4" t="str">
-        <f>G6</f>
-        <v>Kohsuke Kawaguchi</v>
-      </c>
-    </row>
-    <row r="7" spans="3:12">
+        <f t="shared" si="0"/>
+        <v>Kohsuke Kawaguchi</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="C7" s="3">
         <v>40968.63925925926</v>
       </c>
@@ -4518,11 +4512,11 @@
         <v>236</v>
       </c>
       <c r="L7" s="4" t="str">
-        <f>G7</f>
-        <v>Kohsuke Kawaguchi</v>
-      </c>
-    </row>
-    <row r="8" spans="3:12">
+        <f t="shared" si="0"/>
+        <v>Kohsuke Kawaguchi</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="C8" s="3">
         <v>40968.781087962961</v>
       </c>
@@ -4539,11 +4533,11 @@
         <v>237</v>
       </c>
       <c r="L8" s="4" t="str">
-        <f>G8</f>
-        <v>Kohsuke Kawaguchi</v>
-      </c>
-    </row>
-    <row r="9" spans="3:12">
+        <f t="shared" si="0"/>
+        <v>Kohsuke Kawaguchi</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="C9" s="3">
         <v>40968.785787037035</v>
       </c>
@@ -4560,11 +4554,11 @@
         <v>60</v>
       </c>
       <c r="L9" s="4" t="str">
-        <f>G9</f>
-        <v>Kohsuke Kawaguchi</v>
-      </c>
-    </row>
-    <row r="10" spans="3:12">
+        <f t="shared" si="0"/>
+        <v>Kohsuke Kawaguchi</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="C10" s="3">
         <v>40969.92423611111</v>
       </c>
@@ -4581,11 +4575,11 @@
         <v>90</v>
       </c>
       <c r="L10" s="4" t="str">
-        <f>G10</f>
-        <v>Kohsuke Kawaguchi</v>
-      </c>
-    </row>
-    <row r="11" spans="3:12">
+        <f t="shared" si="0"/>
+        <v>Kohsuke Kawaguchi</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="C11" s="3">
         <v>40969.927951388891</v>
       </c>
@@ -4602,11 +4596,11 @@
         <v>91</v>
       </c>
       <c r="L11" s="4" t="str">
-        <f>G11</f>
-        <v>Kohsuke Kawaguchi</v>
-      </c>
-    </row>
-    <row r="12" spans="3:12">
+        <f t="shared" si="0"/>
+        <v>Kohsuke Kawaguchi</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="C12" s="3">
         <v>40969.943564814814</v>
       </c>
@@ -4623,11 +4617,11 @@
         <v>215</v>
       </c>
       <c r="L12" s="4" t="str">
-        <f>G12</f>
-        <v>Kohsuke Kawaguchi</v>
-      </c>
-    </row>
-    <row r="13" spans="3:12">
+        <f t="shared" si="0"/>
+        <v>Kohsuke Kawaguchi</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="C13" s="3">
         <v>40969.950613425928</v>
       </c>
@@ -4644,11 +4638,11 @@
         <v>61</v>
       </c>
       <c r="L13" s="4" t="str">
-        <f>G13</f>
+        <f t="shared" si="0"/>
         <v>Alex Lehmann</v>
       </c>
     </row>
-    <row r="14" spans="3:12">
+    <row r="14" spans="1:12">
       <c r="C14" s="3">
         <v>40970.339965277781</v>
       </c>
@@ -4665,11 +4659,11 @@
         <v>165</v>
       </c>
       <c r="L14" s="4" t="str">
-        <f>G14</f>
+        <f t="shared" si="0"/>
         <v>vjuranek</v>
       </c>
     </row>
-    <row r="15" spans="3:12">
+    <row r="15" spans="1:12">
       <c r="C15" s="3">
         <v>40970.705590277779</v>
       </c>
@@ -4686,11 +4680,11 @@
         <v>216</v>
       </c>
       <c r="L15" s="4" t="str">
-        <f>G15</f>
+        <f t="shared" si="0"/>
         <v>Alex Lehmann</v>
       </c>
     </row>
-    <row r="16" spans="3:12">
+    <row r="16" spans="1:12">
       <c r="C16" s="3">
         <v>40970.721319444441</v>
       </c>
@@ -4707,7 +4701,7 @@
         <v>152</v>
       </c>
       <c r="L16" s="4" t="str">
-        <f>G16</f>
+        <f t="shared" si="0"/>
         <v>OHTAKE Tomohiro</v>
       </c>
     </row>
@@ -4728,7 +4722,7 @@
         <v>166</v>
       </c>
       <c r="L17" s="4" t="str">
-        <f>G17</f>
+        <f t="shared" si="0"/>
         <v>Alex Lehmann</v>
       </c>
     </row>
@@ -4749,7 +4743,7 @@
         <v>149</v>
       </c>
       <c r="L18" s="4" t="str">
-        <f>G18</f>
+        <f t="shared" si="0"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -4770,7 +4764,7 @@
         <v>150</v>
       </c>
       <c r="L19" s="4" t="str">
-        <f>G19</f>
+        <f t="shared" si="0"/>
         <v>Seiji Sogabe</v>
       </c>
     </row>
@@ -4791,7 +4785,7 @@
         <v>69</v>
       </c>
       <c r="L20" s="4" t="str">
-        <f>G20</f>
+        <f t="shared" si="0"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -4812,7 +4806,7 @@
         <v>70</v>
       </c>
       <c r="L21" s="4" t="str">
-        <f>G21</f>
+        <f t="shared" si="0"/>
         <v>Christoph Kutzinski</v>
       </c>
     </row>
@@ -4833,7 +4827,7 @@
         <v>256</v>
       </c>
       <c r="L22" s="4" t="str">
-        <f>G22</f>
+        <f t="shared" si="0"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -4854,7 +4848,7 @@
         <v>120</v>
       </c>
       <c r="L23" s="4" t="str">
-        <f>G23</f>
+        <f t="shared" si="0"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -4875,7 +4869,7 @@
         <v>121</v>
       </c>
       <c r="L24" s="4" t="str">
-        <f>G24</f>
+        <f t="shared" si="0"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -4896,7 +4890,7 @@
         <v>192</v>
       </c>
       <c r="L25" s="4" t="str">
-        <f>G25</f>
+        <f t="shared" si="0"/>
         <v>Erik Lindblad</v>
       </c>
     </row>
@@ -4917,7 +4911,7 @@
         <v>1</v>
       </c>
       <c r="L26" s="4" t="str">
-        <f>G26</f>
+        <f t="shared" si="0"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -4938,7 +4932,7 @@
         <v>248</v>
       </c>
       <c r="L27" s="4" t="str">
-        <f>G27</f>
+        <f t="shared" si="0"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -4959,7 +4953,7 @@
         <v>2</v>
       </c>
       <c r="L28" s="4" t="str">
-        <f>G28</f>
+        <f t="shared" si="0"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -4980,7 +4974,7 @@
         <v>249</v>
       </c>
       <c r="L29" s="4" t="str">
-        <f>G29</f>
+        <f t="shared" si="0"/>
         <v>Hayato ITO</v>
       </c>
     </row>
@@ -5001,7 +4995,7 @@
         <v>73</v>
       </c>
       <c r="L30" s="4" t="str">
-        <f>G30</f>
+        <f t="shared" si="0"/>
         <v>Olivier Lamy</v>
       </c>
     </row>
@@ -5022,7 +5016,7 @@
         <v>193</v>
       </c>
       <c r="L31" s="4" t="str">
-        <f>G31</f>
+        <f t="shared" si="0"/>
         <v>Andrew Bayer</v>
       </c>
     </row>
@@ -5043,7 +5037,7 @@
         <v>269</v>
       </c>
       <c r="L32" s="4" t="str">
-        <f>G32</f>
+        <f t="shared" si="0"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -5064,7 +5058,7 @@
         <v>270</v>
       </c>
       <c r="L33" s="4" t="str">
-        <f>G33</f>
+        <f t="shared" si="0"/>
         <v>Ryan Campbell</v>
       </c>
     </row>
@@ -5085,7 +5079,7 @@
         <v>75</v>
       </c>
       <c r="L34" s="4" t="str">
-        <f>G34</f>
+        <f t="shared" ref="L34:L65" si="1">G34</f>
         <v>Seiji Sogabe</v>
       </c>
     </row>
@@ -5106,7 +5100,7 @@
         <v>76</v>
       </c>
       <c r="L35" s="4" t="str">
-        <f>G35</f>
+        <f t="shared" si="1"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -5127,7 +5121,7 @@
         <v>183</v>
       </c>
       <c r="L36" s="4" t="str">
-        <f>G36</f>
+        <f t="shared" si="1"/>
         <v>Fred G</v>
       </c>
     </row>
@@ -5148,7 +5142,7 @@
         <v>239</v>
       </c>
       <c r="L37" s="4" t="str">
-        <f>G37</f>
+        <f t="shared" si="1"/>
         <v>Andrew Stone</v>
       </c>
     </row>
@@ -5169,7 +5163,7 @@
         <v>240</v>
       </c>
       <c r="L38" s="4" t="str">
-        <f>G38</f>
+        <f t="shared" si="1"/>
         <v>Seiji Sogabe</v>
       </c>
     </row>
@@ -5190,7 +5184,7 @@
         <v>195</v>
       </c>
       <c r="L39" s="4" t="str">
-        <f>G39</f>
+        <f t="shared" si="1"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -5211,7 +5205,7 @@
         <v>196</v>
       </c>
       <c r="L40" s="4" t="str">
-        <f>G40</f>
+        <f t="shared" si="1"/>
         <v>Vincent Latombe</v>
       </c>
     </row>
@@ -5232,7 +5226,7 @@
         <v>180</v>
       </c>
       <c r="L41" s="4" t="str">
-        <f>G41</f>
+        <f t="shared" si="1"/>
         <v>OHTAKE Tomohiro</v>
       </c>
     </row>
@@ -5253,7 +5247,7 @@
         <v>22</v>
       </c>
       <c r="L42" s="4" t="str">
-        <f>G42</f>
+        <f t="shared" si="1"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -5274,7 +5268,7 @@
         <v>143</v>
       </c>
       <c r="L43" s="4" t="str">
-        <f>G43</f>
+        <f t="shared" si="1"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -5295,7 +5289,7 @@
         <v>272</v>
       </c>
       <c r="L44" s="4" t="str">
-        <f>G44</f>
+        <f t="shared" si="1"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -5316,7 +5310,7 @@
         <v>273</v>
       </c>
       <c r="L45" s="4" t="str">
-        <f>G45</f>
+        <f t="shared" si="1"/>
         <v>Alex Earl</v>
       </c>
     </row>
@@ -5337,7 +5331,7 @@
         <v>144</v>
       </c>
       <c r="L46" s="4" t="str">
-        <f>G46</f>
+        <f t="shared" si="1"/>
         <v>imod</v>
       </c>
     </row>
@@ -5358,7 +5352,7 @@
         <v>2453985</v>
       </c>
       <c r="L47" s="4" t="str">
-        <f>G47</f>
+        <f t="shared" si="1"/>
         <v>Alex Lehmann</v>
       </c>
     </row>
@@ -5379,7 +5373,7 @@
         <v>184</v>
       </c>
       <c r="L48" s="4" t="str">
-        <f>G48</f>
+        <f t="shared" si="1"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -5400,7 +5394,7 @@
         <v>278</v>
       </c>
       <c r="L49" s="4" t="str">
-        <f>G49</f>
+        <f t="shared" si="1"/>
         <v>Vincent Latombe</v>
       </c>
     </row>
@@ -5421,7 +5415,7 @@
         <v>279</v>
       </c>
       <c r="L50" s="4" t="str">
-        <f>G50</f>
+        <f t="shared" si="1"/>
         <v>Olivier Lamy</v>
       </c>
     </row>
@@ -5442,7 +5436,7 @@
         <v>258</v>
       </c>
       <c r="L51" s="4" t="str">
-        <f>G51</f>
+        <f t="shared" si="1"/>
         <v>Andrew Bayer</v>
       </c>
     </row>
@@ -5463,7 +5457,7 @@
         <v>123</v>
       </c>
       <c r="L52" s="4" t="str">
-        <f>G52</f>
+        <f t="shared" si="1"/>
         <v>Seiji Sogabe</v>
       </c>
     </row>
@@ -5484,7 +5478,7 @@
         <v>124</v>
       </c>
       <c r="L53" s="4" t="str">
-        <f>G53</f>
+        <f t="shared" si="1"/>
         <v>lvotypko</v>
       </c>
     </row>
@@ -5505,7 +5499,7 @@
         <v>19</v>
       </c>
       <c r="L54" s="4" t="str">
-        <f>G54</f>
+        <f t="shared" si="1"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -5526,7 +5520,7 @@
         <v>20</v>
       </c>
       <c r="L55" s="4" t="str">
-        <f>G55</f>
+        <f t="shared" si="1"/>
         <v>Vojtech Juranek</v>
       </c>
     </row>
@@ -5547,7 +5541,7 @@
         <v>13</v>
       </c>
       <c r="L56" s="4" t="str">
-        <f>G56</f>
+        <f t="shared" si="1"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -5568,7 +5562,7 @@
         <v>14</v>
       </c>
       <c r="L57" s="4" t="str">
-        <f>G57</f>
+        <f t="shared" si="1"/>
         <v>Vojtech Juranek</v>
       </c>
     </row>
@@ -5589,7 +5583,7 @@
         <v>284</v>
       </c>
       <c r="L58" s="4" t="str">
-        <f>G58</f>
+        <f t="shared" si="1"/>
         <v>Jesse Farinacci</v>
       </c>
     </row>
@@ -5610,7 +5604,7 @@
         <v>23</v>
       </c>
       <c r="L59" s="4" t="str">
-        <f>G59</f>
+        <f t="shared" si="1"/>
         <v>Christoph Kutzinski</v>
       </c>
     </row>
@@ -5631,7 +5625,7 @@
         <v>5432576</v>
       </c>
       <c r="L60" s="4" t="str">
-        <f>G60</f>
+        <f t="shared" si="1"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -5652,7 +5646,7 @@
         <v>260</v>
       </c>
       <c r="L61" s="4" t="str">
-        <f>G61</f>
+        <f t="shared" si="1"/>
         <v>Greg Temchenko</v>
       </c>
     </row>
@@ -5673,7 +5667,7 @@
         <v>262</v>
       </c>
       <c r="L62" s="4" t="str">
-        <f>G62</f>
+        <f t="shared" si="1"/>
         <v>Christoph Kutzinski</v>
       </c>
     </row>
@@ -5694,7 +5688,7 @@
         <v>263</v>
       </c>
       <c r="L63" s="4" t="str">
-        <f>G63</f>
+        <f t="shared" si="1"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -5715,7 +5709,7 @@
         <v>126</v>
       </c>
       <c r="L64" s="4" t="str">
-        <f>G64</f>
+        <f t="shared" si="1"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -5736,7 +5730,7 @@
         <v>81</v>
       </c>
       <c r="L65" s="4" t="str">
-        <f>G65</f>
+        <f t="shared" si="1"/>
         <v>Thomas Van Doren</v>
       </c>
     </row>
@@ -5757,7 +5751,7 @@
         <v>25</v>
       </c>
       <c r="L66" s="4" t="str">
-        <f>G66</f>
+        <f t="shared" ref="L66:L97" si="2">G66</f>
         <v>Fred G</v>
       </c>
     </row>
@@ -5778,7 +5772,7 @@
         <v>209</v>
       </c>
       <c r="L67" s="4" t="str">
-        <f>G67</f>
+        <f t="shared" si="2"/>
         <v>Fred G</v>
       </c>
     </row>
@@ -5799,7 +5793,7 @@
         <v>31</v>
       </c>
       <c r="L68" s="4" t="str">
-        <f>G68</f>
+        <f t="shared" si="2"/>
         <v>Marc Guenther</v>
       </c>
     </row>
@@ -5820,7 +5814,7 @@
         <v>127</v>
       </c>
       <c r="L69" s="4" t="str">
-        <f>G69</f>
+        <f t="shared" si="2"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -5841,7 +5835,7 @@
         <v>198</v>
       </c>
       <c r="L70" s="4" t="str">
-        <f>G70</f>
+        <f t="shared" si="2"/>
         <v>Seiji Sogabe</v>
       </c>
     </row>
@@ -5862,7 +5856,7 @@
         <v>199</v>
       </c>
       <c r="L71" s="4" t="str">
-        <f>G71</f>
+        <f t="shared" si="2"/>
         <v>Adrien Gallou</v>
       </c>
     </row>
@@ -5883,7 +5877,7 @@
         <v>186</v>
       </c>
       <c r="L72" s="4" t="str">
-        <f>G72</f>
+        <f t="shared" si="2"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -5904,7 +5898,7 @@
         <v>285</v>
       </c>
       <c r="L73" s="4" t="str">
-        <f>G73</f>
+        <f t="shared" si="2"/>
         <v>Olivier Lamy</v>
       </c>
     </row>
@@ -5925,7 +5919,7 @@
         <v>34</v>
       </c>
       <c r="L74" s="4" t="str">
-        <f>G74</f>
+        <f t="shared" si="2"/>
         <v>unknown</v>
       </c>
     </row>
@@ -5946,7 +5940,7 @@
         <v>187</v>
       </c>
       <c r="L75" s="4" t="str">
-        <f>G75</f>
+        <f t="shared" si="2"/>
         <v>Vincent Latombe</v>
       </c>
     </row>
@@ -5967,7 +5961,7 @@
         <v>51</v>
       </c>
       <c r="L76" s="4" t="str">
-        <f>G76</f>
+        <f t="shared" si="2"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -5988,7 +5982,7 @@
         <v>52</v>
       </c>
       <c r="L77" s="4" t="str">
-        <f>G77</f>
+        <f t="shared" si="2"/>
         <v>Olivier Lamy</v>
       </c>
     </row>
@@ -6009,7 +6003,7 @@
         <v>104</v>
       </c>
       <c r="L78" s="4" t="str">
-        <f>G78</f>
+        <f t="shared" si="2"/>
         <v>Seiji Sogabe</v>
       </c>
     </row>
@@ -6030,7 +6024,7 @@
         <v>221</v>
       </c>
       <c r="L79" s="4" t="str">
-        <f>G79</f>
+        <f t="shared" si="2"/>
         <v>Adrian Cole</v>
       </c>
     </row>
@@ -6051,7 +6045,7 @@
         <v>26</v>
       </c>
       <c r="L80" s="4" t="str">
-        <f>G80</f>
+        <f t="shared" si="2"/>
         <v>Andrew Bayer</v>
       </c>
     </row>
@@ -6072,7 +6066,7 @@
         <v>35</v>
       </c>
       <c r="L81" s="4" t="str">
-        <f>G81</f>
+        <f t="shared" si="2"/>
         <v>Andrew Bayer</v>
       </c>
     </row>
@@ -6093,7 +6087,7 @@
         <v>105</v>
       </c>
       <c r="L82" s="4" t="str">
-        <f>G82</f>
+        <f t="shared" si="2"/>
         <v>Andrew Bayer</v>
       </c>
     </row>
@@ -6114,7 +6108,7 @@
         <v>210</v>
       </c>
       <c r="L83" s="4" t="str">
-        <f>G83</f>
+        <f t="shared" si="2"/>
         <v>Andrew Bayer</v>
       </c>
     </row>
@@ -6135,7 +6129,7 @@
         <v>222</v>
       </c>
       <c r="L84" s="4" t="str">
-        <f>G84</f>
+        <f t="shared" si="2"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -6156,7 +6150,7 @@
         <v>2697474</v>
       </c>
       <c r="L85" s="4" t="str">
-        <f>G85</f>
+        <f t="shared" si="2"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -6177,7 +6171,7 @@
         <v>109</v>
       </c>
       <c r="L86" s="4" t="str">
-        <f>G86</f>
+        <f t="shared" si="2"/>
         <v>Jerome Lacoste</v>
       </c>
     </row>
@@ -6198,7 +6192,7 @@
         <v>49</v>
       </c>
       <c r="L87" s="4" t="str">
-        <f>G87</f>
+        <f t="shared" si="2"/>
         <v>Fred G</v>
       </c>
     </row>
@@ -6219,7 +6213,7 @@
         <v>32</v>
       </c>
       <c r="L88" s="4" t="str">
-        <f>G88</f>
+        <f t="shared" si="2"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -6240,7 +6234,7 @@
         <v>218</v>
       </c>
       <c r="L89" s="4" t="str">
-        <f>G89</f>
+        <f t="shared" si="2"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -6261,7 +6255,7 @@
         <v>4</v>
       </c>
       <c r="L90" s="4" t="str">
-        <f>G90</f>
+        <f t="shared" si="2"/>
         <v>Seiji Sogabe</v>
       </c>
     </row>
@@ -6282,7 +6276,7 @@
         <v>5</v>
       </c>
       <c r="L91" s="4" t="str">
-        <f>G91</f>
+        <f t="shared" si="2"/>
         <v>Ryan Campbell</v>
       </c>
     </row>
@@ -6303,7 +6297,7 @@
         <v>57</v>
       </c>
       <c r="L92" s="4" t="str">
-        <f>G92</f>
+        <f t="shared" si="2"/>
         <v>Nicolas De loof</v>
       </c>
     </row>
@@ -6324,7 +6318,7 @@
         <v>58</v>
       </c>
       <c r="L93" s="4" t="str">
-        <f>G93</f>
+        <f t="shared" si="2"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -6345,7 +6339,7 @@
         <v>110</v>
       </c>
       <c r="L94" s="4" t="str">
-        <f>G94</f>
+        <f t="shared" si="2"/>
         <v>Vojtech Juranek</v>
       </c>
     </row>
@@ -6366,7 +6360,7 @@
         <v>181</v>
       </c>
       <c r="L95" s="4" t="str">
-        <f>G95</f>
+        <f t="shared" si="2"/>
         <v>Ryan Campbell</v>
       </c>
     </row>
@@ -6387,7 +6381,7 @@
         <v>168</v>
       </c>
       <c r="L96" s="4" t="str">
-        <f>G96</f>
+        <f t="shared" si="2"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -6408,7 +6402,7 @@
         <v>169</v>
       </c>
       <c r="L97" s="4" t="str">
-        <f>G97</f>
+        <f t="shared" si="2"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -6429,7 +6423,7 @@
         <v>245</v>
       </c>
       <c r="L98" s="4" t="str">
-        <f>G98</f>
+        <f t="shared" ref="L98:L129" si="3">G98</f>
         <v>Marc Guenther</v>
       </c>
     </row>
@@ -6450,7 +6444,7 @@
         <v>219</v>
       </c>
       <c r="L99" s="4" t="str">
-        <f>G99</f>
+        <f t="shared" si="3"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -6471,7 +6465,7 @@
         <v>246</v>
       </c>
       <c r="L100" s="4" t="str">
-        <f>G100</f>
+        <f t="shared" si="3"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -6492,7 +6486,7 @@
         <v>242</v>
       </c>
       <c r="L101" s="4" t="str">
-        <f>G101</f>
+        <f t="shared" si="3"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -6513,7 +6507,7 @@
         <v>243</v>
       </c>
       <c r="L102" s="4" t="str">
-        <f>G102</f>
+        <f t="shared" si="3"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -6534,7 +6528,7 @@
         <v>117</v>
       </c>
       <c r="L103" s="4" t="str">
-        <f>G103</f>
+        <f t="shared" si="3"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -6555,7 +6549,7 @@
         <v>118</v>
       </c>
       <c r="L104" s="4" t="str">
-        <f>G104</f>
+        <f t="shared" si="3"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -6576,7 +6570,7 @@
         <v>40</v>
       </c>
       <c r="L105" s="4" t="str">
-        <f>G105</f>
+        <f t="shared" si="3"/>
         <v>Stephen Connolly</v>
       </c>
     </row>
@@ -6597,7 +6591,7 @@
         <v>281</v>
       </c>
       <c r="L106" s="4" t="str">
-        <f>G106</f>
+        <f t="shared" si="3"/>
         <v>Stephen Connolly</v>
       </c>
     </row>
@@ -6618,7 +6612,7 @@
         <v>41</v>
       </c>
       <c r="L107" s="4" t="str">
-        <f>G107</f>
+        <f t="shared" si="3"/>
         <v>olivier lamy</v>
       </c>
     </row>
@@ -6639,7 +6633,7 @@
         <v>282</v>
       </c>
       <c r="L108" s="4" t="str">
-        <f>G108</f>
+        <f t="shared" si="3"/>
         <v>Jerome Lacoste</v>
       </c>
     </row>
@@ -6660,7 +6654,7 @@
         <v>189</v>
       </c>
       <c r="L109" s="4" t="str">
-        <f>G109</f>
+        <f t="shared" si="3"/>
         <v>olivier lamy</v>
       </c>
     </row>
@@ -6681,7 +6675,7 @@
         <v>190</v>
       </c>
       <c r="L110" s="4" t="str">
-        <f>G110</f>
+        <f t="shared" si="3"/>
         <v>Seiji Sogabe</v>
       </c>
     </row>
@@ -6702,7 +6696,7 @@
         <v>87</v>
       </c>
       <c r="L111" s="4" t="str">
-        <f>G111</f>
+        <f t="shared" si="3"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -6723,7 +6717,7 @@
         <v>88</v>
       </c>
       <c r="L112" s="4" t="str">
-        <f>G112</f>
+        <f t="shared" si="3"/>
         <v>Fred G</v>
       </c>
     </row>
@@ -6744,7 +6738,7 @@
         <v>163</v>
       </c>
       <c r="L113" s="4" t="str">
-        <f>G113</f>
+        <f t="shared" si="3"/>
         <v>Vincent Latombe</v>
       </c>
     </row>
@@ -6765,7 +6759,7 @@
         <v>28</v>
       </c>
       <c r="L114" s="4" t="str">
-        <f>G114</f>
+        <f t="shared" si="3"/>
         <v>Seiji Sogabe</v>
       </c>
     </row>
@@ -6786,7 +6780,7 @@
         <v>29</v>
       </c>
       <c r="L115" s="4" t="str">
-        <f>G115</f>
+        <f t="shared" si="3"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -6807,7 +6801,7 @@
         <v>63</v>
       </c>
       <c r="L116" s="4" t="str">
-        <f>G116</f>
+        <f t="shared" si="3"/>
         <v>Olivier Lamy</v>
       </c>
     </row>
@@ -6828,7 +6822,7 @@
         <v>64</v>
       </c>
       <c r="L117" s="4" t="str">
-        <f>G117</f>
+        <f t="shared" si="3"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -6849,7 +6843,7 @@
         <v>154</v>
       </c>
       <c r="L118" s="4" t="str">
-        <f>G118</f>
+        <f t="shared" si="3"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -6870,7 +6864,7 @@
         <v>155</v>
       </c>
       <c r="L119" s="4" t="str">
-        <f>G119</f>
+        <f t="shared" si="3"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -6891,7 +6885,7 @@
         <v>157</v>
       </c>
       <c r="L120" s="4" t="str">
-        <f>G120</f>
+        <f t="shared" si="3"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -6912,7 +6906,7 @@
         <v>158</v>
       </c>
       <c r="L121" s="4" t="str">
-        <f>G121</f>
+        <f t="shared" si="3"/>
         <v>Ryan Campbell</v>
       </c>
     </row>
@@ -6933,7 +6927,7 @@
         <v>16</v>
       </c>
       <c r="L122" s="4" t="str">
-        <f>G122</f>
+        <f t="shared" si="3"/>
         <v>bap2000</v>
       </c>
     </row>
@@ -6954,7 +6948,7 @@
         <v>233</v>
       </c>
       <c r="L123" s="4" t="str">
-        <f>G123</f>
+        <f t="shared" si="3"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -6975,7 +6969,7 @@
         <v>234</v>
       </c>
       <c r="L124" s="4" t="str">
-        <f>G124</f>
+        <f t="shared" si="3"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -6996,7 +6990,7 @@
         <v>17</v>
       </c>
       <c r="L125" s="4" t="str">
-        <f>G125</f>
+        <f t="shared" si="3"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -7017,7 +7011,7 @@
         <v>115</v>
       </c>
       <c r="L126" s="4" t="str">
-        <f>G126</f>
+        <f t="shared" si="3"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -7038,7 +7032,7 @@
         <v>8833154</v>
       </c>
       <c r="L127" s="4" t="str">
-        <f>G127</f>
+        <f t="shared" si="3"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -7059,7 +7053,7 @@
         <v>135</v>
       </c>
       <c r="L128" s="4" t="str">
-        <f>G128</f>
+        <f t="shared" si="3"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -7080,7 +7074,7 @@
         <v>4256334</v>
       </c>
       <c r="L129" s="4" t="str">
-        <f>G129</f>
+        <f t="shared" si="3"/>
         <v>vjuranek</v>
       </c>
     </row>
@@ -7101,7 +7095,7 @@
         <v>136</v>
       </c>
       <c r="L130" s="4" t="str">
-        <f>G130</f>
+        <f t="shared" ref="L130:L161" si="4">G130</f>
         <v>Ariel Peltz</v>
       </c>
     </row>
@@ -7122,7 +7116,7 @@
         <v>138</v>
       </c>
       <c r="L131" s="4" t="str">
-        <f>G131</f>
+        <f t="shared" si="4"/>
         <v>Cliffano Subagio</v>
       </c>
     </row>
@@ -7143,7 +7137,7 @@
         <v>201</v>
       </c>
       <c r="L132" s="4" t="str">
-        <f>G132</f>
+        <f t="shared" si="4"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -7164,7 +7158,7 @@
         <v>1521986</v>
       </c>
       <c r="L133" s="4" t="str">
-        <f>G133</f>
+        <f t="shared" si="4"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -7185,7 +7179,7 @@
         <v>202</v>
       </c>
       <c r="L134" s="4" t="str">
-        <f>G134</f>
+        <f t="shared" si="4"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -7206,7 +7200,7 @@
         <v>267</v>
       </c>
       <c r="L135" s="4" t="str">
-        <f>G135</f>
+        <f t="shared" si="4"/>
         <v>Stephen Connolly</v>
       </c>
     </row>
@@ -7227,7 +7221,7 @@
         <v>160</v>
       </c>
       <c r="L136" s="4" t="str">
-        <f>G136</f>
+        <f t="shared" si="4"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -7248,7 +7242,7 @@
         <v>161</v>
       </c>
       <c r="L137" s="4" t="str">
-        <f>G137</f>
+        <f t="shared" si="4"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -7269,7 +7263,7 @@
         <v>230</v>
       </c>
       <c r="L138" s="4" t="str">
-        <f>G138</f>
+        <f t="shared" si="4"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -7290,7 +7284,7 @@
         <v>253</v>
       </c>
       <c r="L139" s="4" t="str">
-        <f>G139</f>
+        <f t="shared" si="4"/>
         <v>Seiji Sogabe</v>
       </c>
     </row>
@@ -7311,7 +7305,7 @@
         <v>231</v>
       </c>
       <c r="L140" s="4" t="str">
-        <f>G140</f>
+        <f t="shared" si="4"/>
         <v>Manolo Carrasco</v>
       </c>
     </row>
@@ -7332,7 +7326,7 @@
         <v>254</v>
       </c>
       <c r="L141" s="4" t="str">
-        <f>G141</f>
+        <f t="shared" si="4"/>
         <v>IanKemp</v>
       </c>
     </row>
@@ -7353,7 +7347,7 @@
         <v>171</v>
       </c>
       <c r="L142" s="4" t="str">
-        <f>G142</f>
+        <f t="shared" si="4"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -7374,7 +7368,7 @@
         <v>172</v>
       </c>
       <c r="L143" s="4" t="str">
-        <f>G143</f>
+        <f t="shared" si="4"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -7395,7 +7389,7 @@
         <v>177</v>
       </c>
       <c r="L144" s="4" t="str">
-        <f>G144</f>
+        <f t="shared" si="4"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -7416,7 +7410,7 @@
         <v>178</v>
       </c>
       <c r="L145" s="4" t="str">
-        <f>G145</f>
+        <f t="shared" si="4"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -7437,7 +7431,7 @@
         <v>132</v>
       </c>
       <c r="L146" s="4" t="str">
-        <f>G146</f>
+        <f t="shared" si="4"/>
         <v>Carl Quinn</v>
       </c>
     </row>
@@ -7458,7 +7452,7 @@
         <v>133</v>
       </c>
       <c r="L147" s="4" t="str">
-        <f>G147</f>
+        <f t="shared" si="4"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -7479,7 +7473,7 @@
         <v>212</v>
       </c>
       <c r="L148" s="4" t="str">
-        <f>G148</f>
+        <f t="shared" si="4"/>
         <v>Manolo Carrasco</v>
       </c>
     </row>
@@ -7500,7 +7494,7 @@
         <v>213</v>
       </c>
       <c r="L149" s="4" t="str">
-        <f>G149</f>
+        <f t="shared" si="4"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -7521,7 +7515,7 @@
         <v>37</v>
       </c>
       <c r="L150" s="4" t="str">
-        <f>G150</f>
+        <f t="shared" si="4"/>
         <v>olivier lamy</v>
       </c>
     </row>
@@ -7542,7 +7536,7 @@
         <v>107</v>
       </c>
       <c r="L151" s="4" t="str">
-        <f>G151</f>
+        <f t="shared" si="4"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -7563,7 +7557,7 @@
         <v>38</v>
       </c>
       <c r="L152" s="4" t="str">
-        <f>G152</f>
+        <f t="shared" si="4"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -7584,7 +7578,7 @@
         <v>275</v>
       </c>
       <c r="L153" s="4" t="str">
-        <f>G153</f>
+        <f t="shared" si="4"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -7605,7 +7599,7 @@
         <v>276</v>
       </c>
       <c r="L154" s="4" t="str">
-        <f>G154</f>
+        <f t="shared" si="4"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -7626,7 +7620,7 @@
         <v>4672995</v>
       </c>
       <c r="L155" s="4" t="str">
-        <f>G155</f>
+        <f t="shared" si="4"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -7647,7 +7641,7 @@
         <v>204</v>
       </c>
       <c r="L156" s="4" t="str">
-        <f>G156</f>
+        <f t="shared" si="4"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -7668,7 +7662,7 @@
         <v>84</v>
       </c>
       <c r="L157" s="4" t="str">
-        <f>G157</f>
+        <f t="shared" si="4"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -7689,7 +7683,7 @@
         <v>112</v>
       </c>
       <c r="L158" s="4" t="str">
-        <f>G158</f>
+        <f t="shared" si="4"/>
         <v>Olivier Lamy</v>
       </c>
     </row>
@@ -7710,7 +7704,7 @@
         <v>85</v>
       </c>
       <c r="L159" s="4" t="str">
-        <f>G159</f>
+        <f t="shared" si="4"/>
         <v>Ryan Campbell</v>
       </c>
     </row>
@@ -7731,7 +7725,7 @@
         <v>113</v>
       </c>
       <c r="L160" s="4" t="str">
-        <f>G160</f>
+        <f t="shared" si="4"/>
         <v>lvotypko</v>
       </c>
     </row>
@@ -7752,7 +7746,7 @@
         <v>129</v>
       </c>
       <c r="L161" s="4" t="str">
-        <f>G161</f>
+        <f t="shared" si="4"/>
         <v>Ryan Campbell</v>
       </c>
     </row>
@@ -7773,7 +7767,7 @@
         <v>227</v>
       </c>
       <c r="L162" s="4" t="str">
-        <f>G162</f>
+        <f t="shared" ref="L162:L195" si="5">G162</f>
         <v>Nicolas De Loof</v>
       </c>
     </row>
@@ -7794,7 +7788,7 @@
         <v>130</v>
       </c>
       <c r="L163" s="4" t="str">
-        <f>G163</f>
+        <f t="shared" si="5"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -7815,7 +7809,7 @@
         <v>228</v>
       </c>
       <c r="L164" s="4" t="str">
-        <f>G164</f>
+        <f t="shared" si="5"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -7836,7 +7830,7 @@
         <v>265</v>
       </c>
       <c r="L165" s="4" t="str">
-        <f>G165</f>
+        <f t="shared" si="5"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -7857,7 +7851,7 @@
         <v>93</v>
       </c>
       <c r="L166" s="4" t="str">
-        <f>G166</f>
+        <f t="shared" si="5"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -7878,7 +7872,7 @@
         <v>94</v>
       </c>
       <c r="L167" s="4" t="str">
-        <f>G167</f>
+        <f t="shared" si="5"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -7899,7 +7893,7 @@
         <v>82</v>
       </c>
       <c r="L168" s="4" t="str">
-        <f>G168</f>
+        <f t="shared" si="5"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -7920,7 +7914,7 @@
         <v>54</v>
       </c>
       <c r="L169" s="4" t="str">
-        <f>G169</f>
+        <f t="shared" si="5"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -7941,7 +7935,7 @@
         <v>55</v>
       </c>
       <c r="L170" s="4" t="str">
-        <f>G170</f>
+        <f t="shared" si="5"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -7962,7 +7956,7 @@
         <v>174</v>
       </c>
       <c r="L171" s="4" t="str">
-        <f>G171</f>
+        <f t="shared" si="5"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -7983,7 +7977,7 @@
         <v>175</v>
       </c>
       <c r="L172" s="4" t="str">
-        <f>G172</f>
+        <f t="shared" si="5"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -8004,7 +7998,7 @@
         <v>206</v>
       </c>
       <c r="L173" s="4" t="str">
-        <f>G173</f>
+        <f t="shared" si="5"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -8025,7 +8019,7 @@
         <v>101</v>
       </c>
       <c r="L174" s="4" t="str">
-        <f>G174</f>
+        <f t="shared" si="5"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -8046,7 +8040,7 @@
         <v>102</v>
       </c>
       <c r="L175" s="4" t="str">
-        <f>G175</f>
+        <f t="shared" si="5"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -8067,7 +8061,7 @@
         <v>7</v>
       </c>
       <c r="L176" s="4" t="str">
-        <f>G176</f>
+        <f t="shared" si="5"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -8088,7 +8082,7 @@
         <v>8</v>
       </c>
       <c r="L177" s="4" t="str">
-        <f>G177</f>
+        <f t="shared" si="5"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -8109,7 +8103,7 @@
         <v>251</v>
       </c>
       <c r="L178" s="4" t="str">
-        <f>G178</f>
+        <f t="shared" si="5"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -8130,7 +8124,7 @@
         <v>207</v>
       </c>
       <c r="L179" s="4" t="str">
-        <f>G179</f>
+        <f t="shared" si="5"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -8151,7 +8145,7 @@
         <v>140</v>
       </c>
       <c r="L180" s="4" t="str">
-        <f>G180</f>
+        <f t="shared" si="5"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -8172,7 +8166,7 @@
         <v>98</v>
       </c>
       <c r="L181" s="4" t="str">
-        <f>G181</f>
+        <f t="shared" si="5"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -8193,7 +8187,7 @@
         <v>141</v>
       </c>
       <c r="L182" s="4" t="str">
-        <f>G182</f>
+        <f t="shared" si="5"/>
         <v>lvotypko</v>
       </c>
     </row>
@@ -8214,7 +8208,7 @@
         <v>99</v>
       </c>
       <c r="L183" s="4" t="str">
-        <f>G183</f>
+        <f t="shared" si="5"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -8235,7 +8229,7 @@
         <v>46</v>
       </c>
       <c r="L184" s="4" t="str">
-        <f>G184</f>
+        <f t="shared" si="5"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -8256,7 +8250,7 @@
         <v>66</v>
       </c>
       <c r="L185" s="4" t="str">
-        <f>G185</f>
+        <f t="shared" si="5"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -8277,7 +8271,7 @@
         <v>67</v>
       </c>
       <c r="L186" s="4" t="str">
-        <f>G186</f>
+        <f t="shared" si="5"/>
         <v>lvotypko</v>
       </c>
     </row>
@@ -8298,7 +8292,7 @@
         <v>47</v>
       </c>
       <c r="L187" s="4" t="str">
-        <f>G187</f>
+        <f t="shared" si="5"/>
         <v>OHTAKE Tomohiro</v>
       </c>
     </row>
@@ -8319,7 +8313,7 @@
         <v>146</v>
       </c>
       <c r="L188" s="4" t="str">
-        <f>G188</f>
+        <f t="shared" si="5"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -8340,7 +8334,7 @@
         <v>224</v>
       </c>
       <c r="L189" s="4" t="str">
-        <f>G189</f>
+        <f t="shared" si="5"/>
         <v>Nicolas De Loof</v>
       </c>
     </row>
@@ -8361,7 +8355,7 @@
         <v>147</v>
       </c>
       <c r="L190" s="4" t="str">
-        <f>G190</f>
+        <f t="shared" si="5"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -8382,7 +8376,7 @@
         <v>225</v>
       </c>
       <c r="L191" s="4" t="str">
-        <f>G191</f>
+        <f t="shared" si="5"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -8403,7 +8397,7 @@
         <v>78</v>
       </c>
       <c r="L192" s="4" t="str">
-        <f>G192</f>
+        <f t="shared" si="5"/>
         <v>Nicolas De Loof</v>
       </c>
     </row>
@@ -8424,7 +8418,7 @@
         <v>79</v>
       </c>
       <c r="L193" s="4" t="str">
-        <f>G193</f>
+        <f t="shared" si="5"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -8445,7 +8439,7 @@
         <v>96</v>
       </c>
       <c r="L194" s="4" t="str">
-        <f>G194</f>
+        <f t="shared" si="5"/>
         <v>Kohsuke Kawaguchi</v>
       </c>
     </row>
@@ -8466,7 +8460,7 @@
         <v>2027421</v>
       </c>
       <c r="L195" s="4" t="str">
-        <f>G195</f>
+        <f t="shared" si="5"/>
         <v>Tim Pizey</v>
       </c>
     </row>
